--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-IS-installatiesspoor.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-IS-installatiesspoor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5E3051A9-5463-48BF-ABC4-02A6947E0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6A1CCF02-D2A4-4E48-8331-69C3327DBA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8F42821-EBE7-4F0E-821E-081C3F9B9AEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF78E9B3-2559-4BB6-8815-0FA49BEDF74C}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-IS-install" sheetId="1" r:id="rId1"/>
@@ -1281,11 +1281,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA99E87-D809-4206-A72D-8436F504E110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7D6C4C-37A7-41EF-9FA1-105884210BD1}">
   <dimension ref="A1:AJ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N25" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10203,7 +10203,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ91" xr:uid="{2AA99E87-D809-4206-A72D-8436F504E110}">
+  <autoFilter ref="A1:AJ91" xr:uid="{BB7D6C4C-37A7-41EF-9FA1-105884210BD1}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ91">
       <sortCondition ref="C1:C91"/>
     </sortState>
